--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_6_8.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_6_8.xlsx
@@ -518,1376 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_24</t>
+          <t>model_6_8_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999987483188716</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9990033523868758</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999877021689285</v>
+        <v>0.9999080603180148</v>
       </c>
       <c r="E2" t="n">
-        <v>0.999995136933611</v>
+        <v>0.9999800923212097</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999932128039462</v>
+        <v>0.9999591760150947</v>
       </c>
       <c r="G2" t="n">
-        <v>1.16838939091397e-06</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0009303267990773665</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I2" t="n">
-        <v>3.461171521304523e-06</v>
+        <v>2.267841183766261e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>3.837844673542496e-06</v>
+        <v>8.163744587914589e-06</v>
       </c>
       <c r="K2" t="n">
-        <v>3.649508097423509e-06</v>
+        <v>1.54210782127886e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>8.139979074347051e-05</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0010809206219302</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000030040347082</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O2" t="n">
-        <v>0.001126937650619922</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P2" t="n">
-        <v>77.31976869297212</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q2" t="n">
-        <v>107.7916643146771</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_23</t>
+          <t>model_6_8_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999987545699068</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9990032521824744</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999878280141834</v>
+        <v>0.9999080603180148</v>
       </c>
       <c r="E3" t="n">
-        <v>0.999995138513446</v>
+        <v>0.9999800923212097</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999932468982855</v>
+        <v>0.9999591760150947</v>
       </c>
       <c r="G3" t="n">
-        <v>1.162554323885577e-06</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0009304203354875617</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I3" t="n">
-        <v>3.425752916994353e-06</v>
+        <v>2.267841183766261e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>3.836597896078168e-06</v>
+        <v>8.163744587914589e-06</v>
       </c>
       <c r="K3" t="n">
-        <v>3.63117540653626e-06</v>
+        <v>1.54210782127886e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>8.138109089858525e-05</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001078218124446801</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000029890322236</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O3" t="n">
-        <v>0.001124120102223714</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P3" t="n">
-        <v>77.32978194070515</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q3" t="n">
-        <v>107.8016775624102</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_22</t>
+          <t>model_6_8_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999987610252488</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9990030722924081</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999878508478962</v>
+        <v>0.9999080603180148</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999951783053225</v>
+        <v>0.9999800923212097</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999932820750983</v>
+        <v>0.9999591760150947</v>
       </c>
       <c r="G4" t="n">
-        <v>1.156528545561167e-06</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0009305882549681382</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I4" t="n">
-        <v>3.419326467020752e-06</v>
+        <v>2.267841183766261e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>3.805194861700342e-06</v>
+        <v>8.163744587914589e-06</v>
       </c>
       <c r="K4" t="n">
-        <v>3.612260664360547e-06</v>
+        <v>1.54210782127886e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>8.108263037385019e-05</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M4" t="n">
-        <v>0.001075420171635797</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N4" t="n">
-        <v>1.00002973539403</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O4" t="n">
-        <v>0.001121203034768985</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P4" t="n">
-        <v>77.34017534572686</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q4" t="n">
-        <v>107.8120709674319</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_21</t>
+          <t>model_6_8_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.999998798786947</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9990027871138727</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999881372347224</v>
+        <v>0.9999080603180148</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999953554655607</v>
+        <v>0.9999800923212097</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999934870332874</v>
+        <v>0.9999591760150947</v>
       </c>
       <c r="G5" t="n">
-        <v>1.121279657838065e-06</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0009308544566131063</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I5" t="n">
-        <v>3.338724129813815e-06</v>
+        <v>2.267841183766261e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>3.665383182692925e-06</v>
+        <v>8.163744587914589e-06</v>
       </c>
       <c r="K5" t="n">
-        <v>3.50205365625337e-06</v>
+        <v>1.54210782127886e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>8.012837369297372e-05</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M5" t="n">
-        <v>0.001058904933333519</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000028829113273</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O5" t="n">
-        <v>0.001103984708580923</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P5" t="n">
-        <v>77.40207994646305</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.8739755681681</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_20</t>
+          <t>model_6_8_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999988043445966</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9990022270141811</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999882142111616</v>
+        <v>0.9999080603180148</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999953691987971</v>
+        <v>0.9999800923212097</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999935172568493</v>
+        <v>0.9999591760150947</v>
       </c>
       <c r="G6" t="n">
-        <v>1.11609183581011e-06</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0009313772850897184</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I6" t="n">
-        <v>3.317059442970175e-06</v>
+        <v>2.267841183766261e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>3.654545159185983e-06</v>
+        <v>8.163744587914589e-06</v>
       </c>
       <c r="K6" t="n">
-        <v>3.485802301078079e-06</v>
+        <v>1.54210782127886e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>7.99077505834027e-05</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M6" t="n">
-        <v>0.00105645247683467</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N6" t="n">
-        <v>1.00002869572968</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O6" t="n">
-        <v>0.001101427845931633</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P6" t="n">
-        <v>77.41135481447675</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q6" t="n">
-        <v>107.8832504361818</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_19</t>
+          <t>model_6_8_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999988046049753</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9990022157995428</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999882142632517</v>
+        <v>0.9999080603180148</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999953711169072</v>
+        <v>0.9999800923212097</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999935186780738</v>
+        <v>0.9999591760150947</v>
       </c>
       <c r="G7" t="n">
-        <v>1.1158487838013e-06</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0009313877534621992</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I7" t="n">
-        <v>3.317044782433291e-06</v>
+        <v>2.267841183766261e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>3.653031421119972e-06</v>
+        <v>8.163744587914589e-06</v>
       </c>
       <c r="K7" t="n">
-        <v>3.485038101776632e-06</v>
+        <v>1.54210782127886e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>7.990948504351997e-05</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M7" t="n">
-        <v>0.001056337438416958</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000028689480594</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O7" t="n">
-        <v>0.001101307910090316</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P7" t="n">
-        <v>77.41179040314364</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q7" t="n">
-        <v>107.8836860248487</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_14</t>
+          <t>model_6_8_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999989402281154</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9990017654236963</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999895384412327</v>
+        <v>0.9999080603180148</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999959100070939</v>
+        <v>0.9999800923212097</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999942606898593</v>
+        <v>0.9999591760150947</v>
       </c>
       <c r="G8" t="n">
-        <v>9.89250535677122e-07</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0009318081595457434</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I8" t="n">
-        <v>2.944360600096182e-06</v>
+        <v>2.267841183766261e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>3.227748962079648e-06</v>
+        <v>8.163744587914589e-06</v>
       </c>
       <c r="K8" t="n">
-        <v>3.086054781087915e-06</v>
+        <v>1.54210782127886e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>7.730393142675436e-05</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M8" t="n">
-        <v>0.000994610745808189</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N8" t="n">
-        <v>1.00002543452523</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O8" t="n">
-        <v>0.001036953384385323</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P8" t="n">
-        <v>77.65263643036559</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q8" t="n">
-        <v>108.1245320520706</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_18</t>
+          <t>model_6_8_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999988272198165</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C9" t="n">
-        <v>0.999001645090595</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999884260815121</v>
+        <v>0.9999080603180148</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999954629181019</v>
+        <v>0.9999800923212097</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999936414807559</v>
+        <v>0.9999591760150947</v>
       </c>
       <c r="G9" t="n">
-        <v>1.094738822254121e-06</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.000931920485213837</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I9" t="n">
-        <v>3.257429446480591e-06</v>
+        <v>2.267841183766261e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>3.580583566563826e-06</v>
+        <v>8.163744587914589e-06</v>
       </c>
       <c r="K9" t="n">
-        <v>3.419006506522208e-06</v>
+        <v>1.54210782127886e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>7.947258122085743e-05</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M9" t="n">
-        <v>0.001046297673826202</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000028146724405</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O9" t="n">
-        <v>0.001090840731935754</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P9" t="n">
-        <v>77.44998948327051</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q9" t="n">
-        <v>107.9218851049755</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_17</t>
+          <t>model_6_8_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999988367861203</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9990015434799273</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999885478469358</v>
+        <v>0.9999080603180148</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999954904830289</v>
+        <v>0.9999800923212097</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999936935763442</v>
+        <v>0.9999591760150947</v>
       </c>
       <c r="G10" t="n">
-        <v>1.085809097459915e-06</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0009320153343119032</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I10" t="n">
-        <v>3.223159093090394e-06</v>
+        <v>2.267841183766261e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>3.558829821122931e-06</v>
+        <v>8.163744587914589e-06</v>
       </c>
       <c r="K10" t="n">
-        <v>3.390994457106663e-06</v>
+        <v>1.54210782127886e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>7.917201417662494e-05</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M10" t="n">
-        <v>0.001042021639631306</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000027917133112</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O10" t="n">
-        <v>0.00108638265811257</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P10" t="n">
-        <v>77.46637027386447</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q10" t="n">
-        <v>107.9382658955695</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_15</t>
+          <t>model_6_8_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999989201214772</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9990015178294308</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999893940375547</v>
+        <v>0.9999080603180148</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999958079765908</v>
+        <v>0.9999800923212097</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999941480235537</v>
+        <v>0.9999591760150947</v>
       </c>
       <c r="G11" t="n">
-        <v>1.008019199907674e-06</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0009320392779245212</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I11" t="n">
-        <v>2.985002392541645e-06</v>
+        <v>2.267841183766261e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>3.30826960303621e-06</v>
+        <v>8.163744587914589e-06</v>
       </c>
       <c r="K11" t="n">
-        <v>3.146635997788927e-06</v>
+        <v>1.54210782127886e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>7.705478283734536e-05</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M11" t="n">
-        <v>0.001004001593578254</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000025917084548</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O11" t="n">
-        <v>0.001046744019986695</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P11" t="n">
-        <v>77.61504668193808</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q11" t="n">
-        <v>108.0869423036431</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_16</t>
+          <t>model_6_8_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999988670312189</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9990011082154148</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999889329804835</v>
+        <v>0.9999080603180148</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999955776667859</v>
+        <v>0.9999800923212097</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999938583489313</v>
+        <v>0.9999591760150947</v>
       </c>
       <c r="G12" t="n">
-        <v>1.057576625566622e-06</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00093242163462852</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I12" t="n">
-        <v>3.114764916937099e-06</v>
+        <v>2.267841183766261e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>3.490025965590054e-06</v>
+        <v>8.163744587914589e-06</v>
       </c>
       <c r="K12" t="n">
-        <v>3.302395441263576e-06</v>
+        <v>1.54210782127886e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>7.838369171939109e-05</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M12" t="n">
-        <v>0.001028385446010698</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000027191250747</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O12" t="n">
-        <v>0.00107216594349872</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P12" t="n">
-        <v>77.51906093897273</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q12" t="n">
-        <v>107.9909565606777</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_13</t>
+          <t>model_6_8_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999989621435422</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9990005045504723</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999900150003952</v>
+        <v>0.9999080603180148</v>
       </c>
       <c r="E13" t="n">
-        <v>0.999995917076913</v>
+        <v>0.9999800923212097</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999943905983963</v>
+        <v>0.9999591760150947</v>
       </c>
       <c r="G13" t="n">
-        <v>9.687934467221031e-07</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0009329851293544838</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I13" t="n">
-        <v>2.810235078973449e-06</v>
+        <v>2.267841183766261e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>3.222169587743399e-06</v>
+        <v>8.163744587914589e-06</v>
       </c>
       <c r="K13" t="n">
-        <v>3.016202333358424e-06</v>
+        <v>1.54210782127886e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>7.805920336887162e-05</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0009842730549609205</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000024908554987</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O13" t="n">
-        <v>0.001026175596636716</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P13" t="n">
-        <v>77.69442881811048</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q13" t="n">
-        <v>108.1663244398155</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_11</t>
+          <t>model_6_8_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999989810415261</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9989995703126181</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999903193124334</v>
+        <v>0.9999080603180148</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999959581629941</v>
+        <v>0.9999800923212097</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999945003907041</v>
+        <v>0.9999591760150947</v>
       </c>
       <c r="G14" t="n">
-        <v>9.511530082907881e-07</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0009338571993830219</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I14" t="n">
-        <v>2.724587768122378e-06</v>
+        <v>2.267841183766261e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>3.189745190271333e-06</v>
+        <v>8.163744587914589e-06</v>
       </c>
       <c r="K14" t="n">
-        <v>2.957166479196855e-06</v>
+        <v>1.54210782127886e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>7.798804535527712e-05</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0009752707358937763</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000024455003374</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O14" t="n">
-        <v>0.001016790030209514</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P14" t="n">
-        <v>77.73118179068805</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q14" t="n">
-        <v>108.2030774123931</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_12</t>
+          <t>model_6_8_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.999998948215022</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9989993788962047</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999901061113221</v>
+        <v>0.9999080603180148</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999957865169761</v>
+        <v>0.9999800923212097</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999943186325368</v>
+        <v>0.9999591760150947</v>
       </c>
       <c r="G15" t="n">
-        <v>9.817951089648232e-07</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0009340358782027201</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I15" t="n">
-        <v>2.784592301499048e-06</v>
+        <v>2.267841183766261e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>3.325205145611852e-06</v>
+        <v>8.163744587914589e-06</v>
       </c>
       <c r="K15" t="n">
-        <v>3.05489872355545e-06</v>
+        <v>1.54210782127886e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>7.89130362743292e-05</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M15" t="n">
-        <v>0.000990855745789882</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000025242839472</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O15" t="n">
-        <v>0.001033038526242315</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P15" t="n">
-        <v>77.66776639407405</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q15" t="n">
-        <v>108.1396620157791</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_10</t>
+          <t>model_6_8_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999990394901573</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C16" t="n">
-        <v>0.998998985428018</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999912192794064</v>
+        <v>0.9999080603180148</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999960913212824</v>
+        <v>0.9999800923212097</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999948336385511</v>
+        <v>0.9999591760150947</v>
       </c>
       <c r="G16" t="n">
-        <v>8.965937766385309e-07</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0009344031634837399</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I16" t="n">
-        <v>2.471295944668706e-06</v>
+        <v>2.267841183766261e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>3.084659060137465e-06</v>
+        <v>8.163744587914589e-06</v>
       </c>
       <c r="K16" t="n">
-        <v>2.777977502403085e-06</v>
+        <v>1.54210782127886e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>7.707820900424949e-05</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0009468863588829078</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000023052236224</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0009871972715055327</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P16" t="n">
-        <v>77.8493258926341</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q16" t="n">
-        <v>108.3212215143391</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_9</t>
+          <t>model_6_8_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999990660215431</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9989985836414388</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999916147040327</v>
+        <v>0.9999080603180148</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999961499684473</v>
+        <v>0.9999800923212097</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999949801630351</v>
+        <v>0.9999591760150947</v>
       </c>
       <c r="G17" t="n">
-        <v>8.718278926341743e-07</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0009347782136190868</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I17" t="n">
-        <v>2.36000538883145e-06</v>
+        <v>2.267841183766261e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>3.03837577064264e-06</v>
+        <v>8.163744587914589e-06</v>
       </c>
       <c r="K17" t="n">
-        <v>2.699190579737045e-06</v>
+        <v>1.54210782127886e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>7.602991220865746e-05</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0009337172444772423</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000022415482966</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O17" t="n">
-        <v>0.000973467520635793</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P17" t="n">
-        <v>77.90534760669998</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q17" t="n">
-        <v>108.377243228405</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_8</t>
+          <t>model_6_8_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999990141870928</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9989948079737182</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999926100674051</v>
+        <v>0.9999080603180148</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999954572536143</v>
+        <v>0.9999800923212097</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999947323157362</v>
+        <v>0.9999591760150947</v>
       </c>
       <c r="G18" t="n">
-        <v>9.202130766827604e-07</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0009383026337035984</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I18" t="n">
-        <v>2.079864660110926e-06</v>
+        <v>2.267841183766261e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>3.585053878595039e-06</v>
+        <v>8.163744587914589e-06</v>
       </c>
       <c r="K18" t="n">
-        <v>2.832459269352983e-06</v>
+        <v>1.54210782127886e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>7.613742775624043e-05</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M18" t="n">
-        <v>0.000959277372131106</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000023659509773</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O18" t="n">
-        <v>0.00100011579584064</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P18" t="n">
-        <v>77.79732117725938</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q18" t="n">
-        <v>108.2692167989644</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_7</t>
+          <t>model_6_8_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999990028598914</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C19" t="n">
-        <v>0.99899363109686</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999929524371181</v>
+        <v>0.9999080603180148</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999952591659076</v>
+        <v>0.9999800923212097</v>
       </c>
       <c r="F19" t="n">
-        <v>0.999994676552073</v>
+        <v>0.9999591760150947</v>
       </c>
       <c r="G19" t="n">
-        <v>9.307865219542888e-07</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0009394011965917622</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I19" t="n">
-        <v>1.983506180867685e-06</v>
+        <v>2.267841183766261e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>3.741381139844939e-06</v>
+        <v>8.163744587914589e-06</v>
       </c>
       <c r="K19" t="n">
-        <v>2.862443660356312e-06</v>
+        <v>1.54210782127886e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>7.561304624798092e-05</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0009647727825526012</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000023931362606</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O19" t="n">
-        <v>0.001005845157260846</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P19" t="n">
-        <v>77.77447177137881</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q19" t="n">
-        <v>108.2463673930838</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_6</t>
+          <t>model_6_8_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999989745751656</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9989920639740378</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999939019967703</v>
+        <v>0.9999080603180148</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999948278987861</v>
+        <v>0.9999800923212097</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999946085790931</v>
+        <v>0.9999591760150947</v>
       </c>
       <c r="G20" t="n">
-        <v>9.571890719642796e-07</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0009408640369575448</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I20" t="n">
-        <v>1.716256711656797e-06</v>
+        <v>2.267841183766261e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>4.081729408258318e-06</v>
+        <v>8.163744587914589e-06</v>
       </c>
       <c r="K20" t="n">
-        <v>2.898993059957557e-06</v>
+        <v>1.54210782127886e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>7.707920662408087e-05</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M20" t="n">
-        <v>0.000978360399834478</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000024610196025</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O20" t="n">
-        <v>0.001020011227540658</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P20" t="n">
-        <v>77.71852979529305</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q20" t="n">
-        <v>108.1904254169981</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_5</t>
+          <t>model_6_8_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999989569296742</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9989919070361225</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999940535281964</v>
+        <v>0.9999080603180148</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999946955981103</v>
+        <v>0.9999800923212097</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999945511484656</v>
+        <v>0.9999591760150947</v>
       </c>
       <c r="G21" t="n">
-        <v>9.736603636011533e-07</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0009410105316127011</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I21" t="n">
-        <v>1.673608845260975e-06</v>
+        <v>2.267841183766261e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>4.186138726129174e-06</v>
+        <v>8.163744587914589e-06</v>
       </c>
       <c r="K21" t="n">
-        <v>2.929873785695075e-06</v>
+        <v>1.54210782127886e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>7.863316346571058e-05</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0009867422984757232</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000025033687819</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O21" t="n">
-        <v>0.001028749960959983</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P21" t="n">
-        <v>77.68440659356602</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q21" t="n">
-        <v>108.156302215271</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_4</t>
+          <t>model_6_8_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999989134382036</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9989903728467209</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999950615129647</v>
+        <v>0.9999080603180148</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999941577535477</v>
+        <v>0.9999800923212097</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999944202548068</v>
+        <v>0.9999591760150947</v>
       </c>
       <c r="G22" t="n">
-        <v>1.014257742390852e-06</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0009424426300760119</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I22" t="n">
-        <v>1.389915879104788e-06</v>
+        <v>2.267841183766261e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>4.61059599736289e-06</v>
+        <v>8.163744587914589e-06</v>
       </c>
       <c r="K22" t="n">
-        <v>3.000255938233839e-06</v>
+        <v>1.54210782127886e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>7.853795397193912e-05</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M22" t="n">
-        <v>0.001007103640342369</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000026077483114</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O22" t="n">
-        <v>0.00104997812730368</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P22" t="n">
-        <v>77.60270700255421</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q22" t="n">
-        <v>108.0746026242592</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_3</t>
+          <t>model_6_8_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999974560083645</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C23" t="n">
-        <v>0.998982346743318</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999934957376213</v>
+        <v>0.9999080603180148</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999873763605535</v>
+        <v>0.9999800923212097</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999890339964131</v>
+        <v>0.9999591760150947</v>
       </c>
       <c r="G23" t="n">
-        <v>2.374704523424444e-06</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0009499346452973538</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I23" t="n">
-        <v>1.830596597191788e-06</v>
+        <v>2.267841183766261e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>9.962349582460712e-06</v>
+        <v>8.163744587914589e-06</v>
       </c>
       <c r="K23" t="n">
-        <v>5.89647308982625e-06</v>
+        <v>1.54210782127886e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.000147768599186169</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M23" t="n">
-        <v>0.001541007632500386</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000061055799251</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O23" t="n">
-        <v>0.00160661151774149</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P23" t="n">
-        <v>75.90127507881418</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q23" t="n">
-        <v>106.3731707005192</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_2</t>
+          <t>model_6_8_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999950109252714</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9989572646684282</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D24" t="n">
-        <v>0.999995159882938</v>
+        <v>0.9999080603180148</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999697388055561</v>
+        <v>0.9999800923212097</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999765263207859</v>
+        <v>0.9999591760150947</v>
       </c>
       <c r="G24" t="n">
-        <v>4.657082263998355e-06</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0009733476612312332</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I24" t="n">
-        <v>1.362230074340052e-06</v>
+        <v>2.267841183766261e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>2.388159128839337e-05</v>
+        <v>8.163744587914589e-06</v>
       </c>
       <c r="K24" t="n">
-        <v>1.262191068136671e-05</v>
+        <v>1.54210782127886e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0001904776201518546</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M24" t="n">
-        <v>0.002158027401123154</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000119737793486</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O24" t="n">
-        <v>0.002249899095321532</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P24" t="n">
-        <v>74.55424285905893</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q24" t="n">
-        <v>105.0261384807639</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_1</t>
+          <t>model_6_8_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999854360826538</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9989103183008405</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D25" t="n">
-        <v>0.999994413549544</v>
+        <v>0.9999080603180148</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999043402012869</v>
+        <v>0.9999800923212097</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999283386779906</v>
+        <v>0.9999591760150947</v>
       </c>
       <c r="G25" t="n">
-        <v>1.359477756063449e-05</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.001017170034666872</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I25" t="n">
-        <v>1.572282389544411e-06</v>
+        <v>2.267841183766261e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>7.549299548732937e-05</v>
+        <v>8.163744587914589e-06</v>
       </c>
       <c r="K25" t="n">
-        <v>3.853263893843689e-05</v>
+        <v>1.54210782127886e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0002082627694239314</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M25" t="n">
-        <v>0.003687109648577662</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000349534016309</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O25" t="n">
-        <v>0.00384407753968679</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P25" t="n">
-        <v>72.41164968372956</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q25" t="n">
-        <v>102.8835453054346</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_0</t>
+          <t>model_6_8_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999654191752</v>
+        <v>0.9999632043074972</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9988439376139063</v>
+        <v>0.9992467334840777</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999919273415285</v>
+        <v>0.9999080603180148</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9997760920263951</v>
+        <v>0.9999800923212097</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9998335739634738</v>
+        <v>0.9999591760150947</v>
       </c>
       <c r="G26" t="n">
-        <v>3.227968202799386e-05</v>
+        <v>3.434716380714357e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.00107913349214456</v>
+        <v>0.0007031412280348575</v>
       </c>
       <c r="I26" t="n">
-        <v>2.272014913877969e-06</v>
+        <v>2.267841183766261e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0001767041523016527</v>
+        <v>8.163744587914589e-06</v>
       </c>
       <c r="K26" t="n">
-        <v>8.948808360776535e-05</v>
+        <v>1.54210782127886e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0003043612338824606</v>
+        <v>0.0002886930549261025</v>
       </c>
       <c r="M26" t="n">
-        <v>0.005681521101605965</v>
+        <v>0.005860645340501639</v>
       </c>
       <c r="N26" t="n">
-        <v>1.0008299397952</v>
+        <v>1.000883096620067</v>
       </c>
       <c r="O26" t="n">
-        <v>0.005923395217271368</v>
+        <v>0.006110145145855123</v>
       </c>
       <c r="P26" t="n">
-        <v>70.68214513008988</v>
+        <v>70.55798222036485</v>
       </c>
       <c r="Q26" t="n">
-        <v>101.1540407517949</v>
+        <v>101.0298778420699</v>
       </c>
     </row>
   </sheetData>
